--- a/dataset/testing_codes_set.xlsx
+++ b/dataset/testing_codes_set.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477C445-34A7-442D-9D23-62E2DF15C063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF24DC7-D76B-4B8A-ADEC-6C0BD1D928A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positive Sample" sheetId="1" r:id="rId1"/>
     <sheet name="Negative Sample" sheetId="2" r:id="rId2"/>
     <sheet name="Recall and Precision" sheetId="3" r:id="rId3"/>
+    <sheet name="chatgpt recall and precision" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Negative Sample'!$A$1:$A$71</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="428">
   <si>
     <t>Post URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,9 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://discuss.pytorch.org/t/given-groups-1-weight-of-size-6-1-3-3-expected-input-13-3-100-100-to-have-1-channels-but-got-3-channels-instead/36666</t>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,9 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://discuss.pytorch.org/t/accuracy-of-signal-prediction-model-stuck-at-51-after-few-epochs/130082</t>
-  </si>
-  <si>
     <t>beta = 0.5 #The interpolation parameter    
 params1 = model1.named_parameters()
 params2 = model2.named_parameters()
@@ -372,9 +367,6 @@
     <t>https://discuss.pytorch.org/t/if-my-model-has-dropout-do-i-have-to-alternate-between-model-eval-and-model-train-during-training/83007</t>
   </si>
   <si>
-    <t>https://discuss.pytorch.org/t/where-should-i-put-train-and-eval/105009</t>
-  </si>
-  <si>
     <t xml:space="preserve">    model.eval()
     for inputs, labels in validation_loader:
         inputs = inputs.to(device)
@@ -409,9 +401,6 @@
         total += labels.size(0)
         correct += (predicted == labels).sum().item()</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://discuss.pytorch.org/t/training-acc-going-up-test-acc-doesnt-change/43349</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -475,9 +464,6 @@
           running_val_loss += loss_val
       validation_loss.append(running_val_loss / len(valloader))</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://discuss.pytorch.org/t/loading-a-saved-model-produces-different-results-on-forward-pass/100222</t>
   </si>
   <si>
     <t>def validate(model, train_loader, val_loader):
@@ -2118,9 +2104,6 @@
 print(linear.weight)
 print(linear2.weight)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://discuss.pytorch.org/t/layers-are-not-initialized-with-same-weights-with-manual-seed/56804</t>
   </si>
   <si>
     <t>train_mean = trainset.train_data.mean(axis=(0,1,2))/255  # [0.49139968  0.48215841  0.44653091]
@@ -6514,6 +6497,32 @@
     <t>Here, FP refers to the negative samples that have been incorrectly marked as positive samples, that is, the samples in the Negative Sample Table marked as F (not be correctly detected as negative).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Pattern category</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/given-groups-1-weight-of-size-6-1-3-3-expected-input-13-3-100-100-to-have-1-channels-but-got-3-channels-instead/36666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/accuracy-of-signal-prediction-model-stuck-at-51-after-few-epochs/130082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/where-should-i-put-train-and-eval/105009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-acc-going-up-test-acc-doesnt-change/43349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/layers-are-not-initialized-with-same-weights-with-manual-seed/56804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6580,7 +6589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6592,6 +6601,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6900,8 +6921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6924,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="177.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6932,13 +6953,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="238" x14ac:dyDescent="0.25">
@@ -6946,13 +6967,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6960,13 +6981,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>424</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="280" x14ac:dyDescent="0.25">
@@ -6974,13 +6995,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6988,13 +7009,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="112" x14ac:dyDescent="0.25">
@@ -7002,13 +7023,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="154" x14ac:dyDescent="0.25">
@@ -7016,13 +7037,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="154" x14ac:dyDescent="0.25">
@@ -7030,13 +7051,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -7044,13 +7065,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="168" x14ac:dyDescent="0.25">
@@ -7058,13 +7079,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7072,13 +7093,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7086,13 +7107,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="322" x14ac:dyDescent="0.25">
@@ -7100,13 +7121,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="252" x14ac:dyDescent="0.25">
@@ -7114,13 +7135,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -7128,13 +7149,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -7142,13 +7163,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7156,13 +7177,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7170,13 +7191,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="154" x14ac:dyDescent="0.25">
@@ -7184,13 +7205,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="98" x14ac:dyDescent="0.25">
@@ -7198,13 +7219,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="84" x14ac:dyDescent="0.25">
@@ -7212,13 +7233,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="84" x14ac:dyDescent="0.25">
@@ -7226,13 +7247,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="392" x14ac:dyDescent="0.25">
@@ -7240,13 +7261,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="98" x14ac:dyDescent="0.25">
@@ -7254,13 +7275,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="336" x14ac:dyDescent="0.25">
@@ -7268,13 +7289,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="56" x14ac:dyDescent="0.25">
@@ -7282,13 +7303,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="112" x14ac:dyDescent="0.25">
@@ -7296,13 +7317,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="182" x14ac:dyDescent="0.25">
@@ -7310,13 +7331,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="378" x14ac:dyDescent="0.25">
@@ -7324,13 +7345,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7338,13 +7359,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7352,13 +7373,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" customFormat="1" ht="168" x14ac:dyDescent="0.25">
@@ -7366,13 +7387,13 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="154" x14ac:dyDescent="0.25">
@@ -7380,13 +7401,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="56" x14ac:dyDescent="0.25">
@@ -7394,13 +7415,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -7408,13 +7429,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7422,13 +7443,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="308" x14ac:dyDescent="0.25">
@@ -7436,13 +7457,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7450,13 +7471,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7464,13 +7485,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="182" x14ac:dyDescent="0.25">
@@ -7478,13 +7499,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="378" x14ac:dyDescent="0.25">
@@ -7492,13 +7513,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="322" x14ac:dyDescent="0.25">
@@ -7506,13 +7527,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7520,13 +7541,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7534,13 +7555,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="266" x14ac:dyDescent="0.25">
@@ -7548,13 +7569,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="98" x14ac:dyDescent="0.25">
@@ -7562,13 +7583,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7576,13 +7597,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7590,13 +7611,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" customFormat="1" ht="224" x14ac:dyDescent="0.25">
@@ -7604,13 +7625,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="364" x14ac:dyDescent="0.25">
@@ -7618,13 +7639,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="294" x14ac:dyDescent="0.25">
@@ -7632,13 +7653,13 @@
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -7646,13 +7667,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="308" x14ac:dyDescent="0.25">
@@ -7660,13 +7681,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>199</v>
+        <v>427</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="238" x14ac:dyDescent="0.25">
@@ -7674,13 +7695,13 @@
         <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7688,13 +7709,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7702,13 +7723,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7716,13 +7737,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7730,13 +7751,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7744,13 +7765,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7758,13 +7779,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7772,13 +7793,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7786,13 +7807,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7800,13 +7821,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7814,13 +7835,13 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="252" x14ac:dyDescent="0.25">
@@ -7828,13 +7849,13 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7842,13 +7863,13 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="140" x14ac:dyDescent="0.25">
@@ -7856,13 +7877,13 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="112" x14ac:dyDescent="0.25">
@@ -7870,13 +7891,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="196" x14ac:dyDescent="0.25">
@@ -7884,13 +7905,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7898,13 +7919,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -7912,13 +7933,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="98" x14ac:dyDescent="0.25">
@@ -7926,13 +7947,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="112" x14ac:dyDescent="0.25">
@@ -7940,13 +7961,13 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="140" x14ac:dyDescent="0.25">
@@ -7954,13 +7975,13 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -7968,13 +7989,13 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="294" x14ac:dyDescent="0.25">
@@ -7982,13 +8003,13 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="196" x14ac:dyDescent="0.25">
@@ -7996,13 +8017,13 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8010,13 +8031,13 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8024,13 +8045,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="266" x14ac:dyDescent="0.25">
@@ -8038,13 +8059,13 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8052,13 +8073,13 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8066,13 +8087,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8080,13 +8101,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8094,13 +8115,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8108,13 +8129,13 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8122,13 +8143,13 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8136,13 +8157,13 @@
         <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8150,13 +8171,13 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8164,13 +8185,13 @@
         <v>10</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8178,13 +8199,13 @@
         <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8192,13 +8213,13 @@
         <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="154" x14ac:dyDescent="0.25">
@@ -8206,13 +8227,13 @@
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8220,13 +8241,13 @@
         <v>10</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="84" x14ac:dyDescent="0.25">
@@ -8234,13 +8255,13 @@
         <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -8248,13 +8269,13 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="112" x14ac:dyDescent="0.25">
@@ -8262,13 +8283,13 @@
         <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -8276,13 +8297,13 @@
         <v>10</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="196" x14ac:dyDescent="0.25">
@@ -8290,13 +8311,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="84" x14ac:dyDescent="0.25">
@@ -8304,13 +8325,13 @@
         <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8318,13 +8339,13 @@
         <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8332,13 +8353,13 @@
         <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="224" x14ac:dyDescent="0.25">
@@ -8346,13 +8367,13 @@
         <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8360,13 +8381,13 @@
         <v>10</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8374,13 +8395,13 @@
         <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8388,13 +8409,13 @@
         <v>10</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8402,13 +8423,13 @@
         <v>10</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8416,13 +8437,13 @@
         <v>10</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8430,13 +8451,13 @@
         <v>11</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8444,13 +8465,13 @@
         <v>11</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="266" x14ac:dyDescent="0.25">
@@ -8458,13 +8479,13 @@
         <v>11</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="112" x14ac:dyDescent="0.25">
@@ -8472,13 +8493,13 @@
         <v>11</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8486,13 +8507,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8500,13 +8521,13 @@
         <v>12</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="252" x14ac:dyDescent="0.25">
@@ -8514,13 +8535,13 @@
         <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8528,13 +8549,13 @@
         <v>12</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8542,13 +8563,13 @@
         <v>12</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="98" x14ac:dyDescent="0.25">
@@ -8556,13 +8577,13 @@
         <v>12</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="70" x14ac:dyDescent="0.25">
@@ -8570,13 +8591,13 @@
         <v>12</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="406" x14ac:dyDescent="0.25">
@@ -8584,13 +8605,13 @@
         <v>12</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8598,13 +8619,13 @@
         <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8612,13 +8633,13 @@
         <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="56" x14ac:dyDescent="0.25">
@@ -8626,13 +8647,13 @@
         <v>12</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="196" x14ac:dyDescent="0.25">
@@ -8640,13 +8661,13 @@
         <v>12</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="294" x14ac:dyDescent="0.25">
@@ -8654,13 +8675,13 @@
         <v>12</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8668,13 +8689,13 @@
         <v>12</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8682,13 +8703,13 @@
         <v>12</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8696,13 +8717,13 @@
         <v>12</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8710,13 +8731,13 @@
         <v>12</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8724,13 +8745,13 @@
         <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8738,13 +8759,13 @@
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="406" x14ac:dyDescent="0.25">
@@ -8752,13 +8773,13 @@
         <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -8766,13 +8787,13 @@
         <v>13</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="406" x14ac:dyDescent="0.25">
@@ -8780,13 +8801,13 @@
         <v>13</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8794,13 +8815,13 @@
         <v>13</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -8808,13 +8829,13 @@
         <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:4" customFormat="1" ht="238" x14ac:dyDescent="0.25">
@@ -8822,13 +8843,13 @@
         <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" customFormat="1" ht="238" x14ac:dyDescent="0.25">
@@ -8836,13 +8857,13 @@
         <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4" customFormat="1" ht="238" x14ac:dyDescent="0.25">
@@ -8850,13 +8871,13 @@
         <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" customFormat="1" ht="224" x14ac:dyDescent="0.25">
@@ -8864,13 +8885,13 @@
         <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8878,24 +8899,24 @@
         <v>14</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:4" customFormat="1" ht="336" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8903,13 +8924,13 @@
         <v>14</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8917,13 +8938,13 @@
         <v>14</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8931,13 +8952,13 @@
         <v>14</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8975,7 +8996,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="154" x14ac:dyDescent="0.25">
@@ -8983,13 +9004,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="322" x14ac:dyDescent="0.25">
@@ -8997,13 +9018,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="168" x14ac:dyDescent="0.25">
@@ -9011,13 +9032,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9025,13 +9046,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="364" x14ac:dyDescent="0.25">
@@ -9039,13 +9060,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9053,13 +9074,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9067,13 +9088,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="280" x14ac:dyDescent="0.25">
@@ -9081,13 +9102,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -9095,13 +9116,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="266" x14ac:dyDescent="0.25">
@@ -9109,13 +9130,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="154" x14ac:dyDescent="0.25">
@@ -9123,21 +9144,21 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="84" x14ac:dyDescent="0.25">
@@ -9145,13 +9166,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="140" x14ac:dyDescent="0.25">
@@ -9159,13 +9180,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -9173,13 +9194,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9187,13 +9208,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="98" x14ac:dyDescent="0.25">
@@ -9201,13 +9222,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -9215,13 +9236,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -9229,13 +9250,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9243,13 +9264,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="350" x14ac:dyDescent="0.25">
@@ -9257,13 +9278,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9271,13 +9292,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="364" x14ac:dyDescent="0.25">
@@ -9285,13 +9306,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9299,13 +9320,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9313,13 +9334,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -9327,13 +9348,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="196" x14ac:dyDescent="0.25">
@@ -9341,13 +9362,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="140" x14ac:dyDescent="0.25">
@@ -9355,13 +9376,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="182" x14ac:dyDescent="0.25">
@@ -9369,13 +9390,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="126" x14ac:dyDescent="0.25">
@@ -9383,13 +9404,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="280" x14ac:dyDescent="0.25">
@@ -9397,13 +9418,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="112" x14ac:dyDescent="0.25">
@@ -9411,13 +9432,13 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9425,13 +9446,13 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9439,13 +9460,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="196" x14ac:dyDescent="0.25">
@@ -9453,13 +9474,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9467,13 +9488,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9481,13 +9502,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="168" x14ac:dyDescent="0.25">
@@ -9495,13 +9516,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9509,13 +9530,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -9523,13 +9544,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9537,13 +9558,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -9551,13 +9572,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="154" x14ac:dyDescent="0.25">
@@ -9565,13 +9586,13 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9579,13 +9600,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9593,13 +9614,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9607,13 +9628,13 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9621,13 +9642,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9635,13 +9656,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="336" x14ac:dyDescent="0.25">
@@ -9649,13 +9670,13 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9663,13 +9684,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
@@ -9677,13 +9698,13 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="392" x14ac:dyDescent="0.25">
@@ -9691,13 +9712,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="350" x14ac:dyDescent="0.25">
@@ -9705,13 +9726,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="98" x14ac:dyDescent="0.25">
@@ -9719,13 +9740,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="350" x14ac:dyDescent="0.25">
@@ -9733,13 +9754,13 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="336" x14ac:dyDescent="0.25">
@@ -9747,13 +9768,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9761,13 +9782,13 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9775,13 +9796,13 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9789,13 +9810,13 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="154" x14ac:dyDescent="0.25">
@@ -9803,13 +9824,13 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -9817,13 +9838,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -9831,13 +9852,13 @@
         <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9845,13 +9866,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9859,13 +9880,13 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9873,13 +9894,13 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="266" x14ac:dyDescent="0.25">
@@ -9887,13 +9908,13 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -9901,13 +9922,13 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -9915,13 +9936,13 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9929,13 +9950,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9943,13 +9964,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -9962,15 +9983,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="64.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10017,7 +10039,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -10058,7 +10080,7 @@
     </row>
     <row r="3" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10097,12 +10119,12 @@
         <v>1</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -10143,7 +10165,7 @@
     </row>
     <row r="5" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -10182,12 +10204,12 @@
         <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B5)</f>
@@ -10240,7 +10262,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <f xml:space="preserve"> B2/SUM(B2,B3)</f>
@@ -10293,18 +10315,18 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
         <f xml:space="preserve"> B2/SUM(B2,B5)</f>
         <v>0.75</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:M8" si="2" xml:space="preserve"> C2/SUM(C2,C5)</f>
+        <f xml:space="preserve"> C2/SUM(C2,C5)</f>
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D8:M8" si="2" xml:space="preserve"> D2/SUM(D2,D5)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="E8" s="2">
@@ -10346,7 +10368,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>0.92400000000000004</v>
@@ -10354,10 +10376,501 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2">
         <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <f>SUM(B2:C2,G2:I2)/SUM(B5:C5,G5:I5,B2:C2,G2:I2)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C12" s="7">
+        <f>D8</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D12" s="7">
+        <f>E8</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <f>SUM(J2,L2:M2)/SUM(J2,L2:M2,J5,L5:M5)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <f>K8</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="H12">
+        <f>SUM(B2:M3)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SUM(B2:C2,G2:I2)/SUM(B3:C3,G3:I3,B2:C2,G2:I2)</f>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="C13" s="7">
+        <f>D7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D13" s="7">
+        <f>E7</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E13" s="2">
+        <f xml:space="preserve"> SUM(J2,L2:M2)/SUM(J2:J3,L2:M3)</f>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="F13" s="7">
+        <f>K7</f>
+        <v>0.77272727272727271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D0F2E-D4D6-439A-93B6-E1A706794F33}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>18-7</f>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>8-2</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>8-4</f>
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <f>17-10</f>
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>16-13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f>3+7</f>
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>2+4</f>
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>10+5</f>
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <f>1+13</f>
+        <v>14</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>21-5</f>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>4-3</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>3+5</f>
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:M6" si="0">SUM(C2:C5)</f>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F2:F5)</f>
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <f xml:space="preserve"> B2/SUM(B2,B3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:M7" si="1" xml:space="preserve"> C2/SUM(C2,C3)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <f xml:space="preserve"> B2/SUM(B2,B5)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:M8" si="2" xml:space="preserve"> C2/SUM(C2,C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C9" s="5">
+        <f>SUM(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,)/SUM(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,B5,C5,D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,)</f>
+        <v>0.76136363636363635</v>
+      </c>
+      <c r="D9">
+        <f>2/SUM(B2:M3)</f>
+        <v>1.5503875968992248E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="C10" s="5">
+        <f>SUM(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,)/SUM(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3)</f>
+        <v>0.51937984496124034</v>
       </c>
     </row>
   </sheetData>
